--- a/VersionRecords/Version 5.3.6 20170328/版本Bug和特性计划及评审表v5.3.6_极光组.xlsx
+++ b/VersionRecords/Version 5.3.6 20170328/版本Bug和特性计划及评审表v5.3.6_极光组.xlsx
@@ -587,9 +587,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>JRYH-12</t>
-  </si>
-  <si>
     <t>JSZWYH-1</t>
   </si>
   <si>
@@ -657,6 +654,10 @@
   </si>
   <si>
     <t>JRYF-402</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYH-12</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1779,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1892,13 +1893,13 @@
         <v>74</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="46" t="s">
         <v>70</v>
@@ -1914,7 +1915,7 @@
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M2" s="46" t="s">
         <v>130</v>
@@ -1923,7 +1924,7 @@
         <v>75</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P2" s="50" t="s">
         <v>71</v>
@@ -1935,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T2" s="44"/>
       <c r="U2" s="44"/>
@@ -1962,7 +1963,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>70</v>
@@ -1978,7 +1979,7 @@
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M3" s="46" t="s">
         <v>130</v>
@@ -1987,7 +1988,7 @@
         <v>75</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P3" s="50" t="s">
         <v>71</v>
@@ -1999,7 +2000,7 @@
         <v>73</v>
       </c>
       <c r="S3" s="75" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
@@ -2024,7 +2025,7 @@
         <v>69</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>70</v>
@@ -2040,7 +2041,7 @@
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>130</v>
@@ -2049,7 +2050,7 @@
         <v>75</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P4" s="50" t="s">
         <v>71</v>
@@ -2061,7 +2062,7 @@
         <v>73</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T4" s="44"/>
       <c r="U4" s="44"/>
@@ -2080,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>69</v>
@@ -2100,7 +2101,7 @@
       </c>
       <c r="K5" s="46"/>
       <c r="L5" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M5" s="46" t="s">
         <v>130</v>
@@ -2109,7 +2110,7 @@
         <v>75</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P5" s="50" t="s">
         <v>71</v>
@@ -2121,7 +2122,7 @@
         <v>73</v>
       </c>
       <c r="S5" s="76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
@@ -2146,7 +2147,7 @@
         <v>69</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>70</v>
@@ -2208,7 +2209,7 @@
         <v>69</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>70</v>
@@ -2270,7 +2271,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>70</v>
@@ -2332,7 +2333,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>70</v>
@@ -2394,7 +2395,7 @@
         <v>69</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>70</v>
@@ -2456,7 +2457,7 @@
         <v>69</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>70</v>
@@ -2518,7 +2519,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>70</v>
@@ -2580,7 +2581,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>70</v>
@@ -2642,7 +2643,7 @@
         <v>69</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="46" t="s">
         <v>70</v>
@@ -2704,7 +2705,7 @@
         <v>69</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="46" t="s">
         <v>70</v>
@@ -2766,7 +2767,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>70</v>
@@ -2827,7 +2828,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>70</v>
@@ -2888,7 +2889,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>70</v>
@@ -2949,7 +2950,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>70</v>
@@ -3010,7 +3011,7 @@
         <v>69</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>70</v>
@@ -3071,7 +3072,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" s="46" t="s">
         <v>70</v>
@@ -3132,7 +3133,7 @@
         <v>69</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="46" t="s">
         <v>70</v>
@@ -3193,7 +3194,7 @@
         <v>69</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>70</v>
@@ -3254,7 +3255,7 @@
         <v>69</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>70</v>
@@ -3315,7 +3316,7 @@
         <v>69</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>70</v>
@@ -3376,7 +3377,7 @@
         <v>69</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>70</v>
@@ -3437,7 +3438,7 @@
         <v>69</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>70</v>
@@ -3462,7 +3463,7 @@
         <v>75</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P27" s="50" t="s">
         <v>71</v>
@@ -3498,7 +3499,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>70</v>
@@ -3523,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="O28" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P28" s="50" t="s">
         <v>71</v>
@@ -3559,7 +3560,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="46" t="s">
         <v>70</v>
@@ -3584,7 +3585,7 @@
         <v>75</v>
       </c>
       <c r="O29" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P29" s="50" t="s">
         <v>71</v>
@@ -3620,7 +3621,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="46" t="s">
         <v>70</v>
@@ -3645,7 +3646,7 @@
         <v>75</v>
       </c>
       <c r="O30" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P30" s="50" t="s">
         <v>71</v>
@@ -3681,7 +3682,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G31" s="46" t="s">
         <v>70</v>
@@ -3706,7 +3707,7 @@
         <v>75</v>
       </c>
       <c r="O31" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P31" s="50" t="s">
         <v>71</v>
@@ -3742,7 +3743,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>70</v>
@@ -3767,7 +3768,7 @@
         <v>75</v>
       </c>
       <c r="O32" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P32" s="50" t="s">
         <v>71</v>
@@ -3803,7 +3804,7 @@
         <v>69</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="46" t="s">
         <v>70</v>
@@ -3828,7 +3829,7 @@
         <v>75</v>
       </c>
       <c r="O33" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P33" s="50" t="s">
         <v>71</v>

--- a/VersionRecords/Version 5.3.6 20170328/版本Bug和特性计划及评审表v5.3.6_极光组.xlsx
+++ b/VersionRecords/Version 5.3.6 20170328/版本Bug和特性计划及评审表v5.3.6_极光组.xlsx
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7029,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
